--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H2">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I2">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J2">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N2">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O2">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P2">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q2">
-        <v>9.390732716057554</v>
+        <v>3.014905571762666</v>
       </c>
       <c r="R2">
-        <v>84.51659444451799</v>
+        <v>27.13415014586399</v>
       </c>
       <c r="S2">
-        <v>0.02340068206616807</v>
+        <v>0.007257513190625403</v>
       </c>
       <c r="T2">
-        <v>0.02340068206616807</v>
+        <v>0.007257513190625403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H3">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I3">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J3">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>187.398952</v>
       </c>
       <c r="O3">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P3">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q3">
-        <v>24.77062251852355</v>
+        <v>6.564418711713778</v>
       </c>
       <c r="R3">
-        <v>222.935602666712</v>
+        <v>59.079768405424</v>
       </c>
       <c r="S3">
-        <v>0.06172569059982608</v>
+        <v>0.01580193948203738</v>
       </c>
       <c r="T3">
-        <v>0.0617256905998261</v>
+        <v>0.01580193948203738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H4">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I4">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J4">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N4">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O4">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P4">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q4">
-        <v>5.927553763429333</v>
+        <v>2.997694578483999</v>
       </c>
       <c r="R4">
-        <v>53.34798387086399</v>
+        <v>26.979251206356</v>
       </c>
       <c r="S4">
-        <v>0.01477081770317503</v>
+        <v>0.007216082702084211</v>
       </c>
       <c r="T4">
-        <v>0.01477081770317503</v>
+        <v>0.007216082702084211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H5">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I5">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J5">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N5">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O5">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P5">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q5">
-        <v>0.03288682027011111</v>
+        <v>0.01612088734088889</v>
       </c>
       <c r="R5">
-        <v>0.295981382431</v>
+        <v>0.145087986068</v>
       </c>
       <c r="S5">
-        <v>8.195037049581435E-05</v>
+        <v>3.880637377730026E-05</v>
       </c>
       <c r="T5">
-        <v>8.195037049581437E-05</v>
+        <v>3.880637377730026E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I6">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J6">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N6">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O6">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P6">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q6">
-        <v>52.16736577329466</v>
+        <v>63.19952125007198</v>
       </c>
       <c r="R6">
-        <v>469.5062919596519</v>
+        <v>568.7956912506479</v>
       </c>
       <c r="S6">
-        <v>0.1299953877510493</v>
+        <v>0.1521345687936241</v>
       </c>
       <c r="T6">
-        <v>0.1299953877510493</v>
+        <v>0.1521345687936241</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I7">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J7">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>187.398952</v>
       </c>
       <c r="O7">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P7">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q7">
         <v>137.6056761946186</v>
@@ -883,10 +883,10 @@
         <v>1238.451085751568</v>
       </c>
       <c r="S7">
-        <v>0.3428983420669864</v>
+        <v>0.331245867015164</v>
       </c>
       <c r="T7">
-        <v>0.3428983420669864</v>
+        <v>0.331245867015164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I8">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J8">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N8">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O8">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P8">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q8">
-        <v>32.928726082144</v>
+        <v>62.83873829698798</v>
       </c>
       <c r="R8">
-        <v>296.358534739296</v>
+        <v>565.5486446728919</v>
       </c>
       <c r="S8">
-        <v>0.0820547952104513</v>
+        <v>0.1512660881800077</v>
       </c>
       <c r="T8">
-        <v>0.08205479521045131</v>
+        <v>0.1512660881800077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I9">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J9">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N9">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O9">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P9">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q9">
-        <v>0.1826927497593333</v>
+        <v>0.3379317652973333</v>
       </c>
       <c r="R9">
-        <v>1.644234747834</v>
+        <v>3.041385887676</v>
       </c>
       <c r="S9">
-        <v>0.0004552504135914713</v>
+        <v>0.0008134729880587414</v>
       </c>
       <c r="T9">
-        <v>0.0004552504135914714</v>
+        <v>0.0008134729880587415</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H10">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N10">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O10">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P10">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q10">
-        <v>30.35828102215133</v>
+        <v>27.73383770286133</v>
       </c>
       <c r="R10">
-        <v>273.224529199362</v>
+        <v>249.604539325752</v>
       </c>
       <c r="S10">
-        <v>0.07564952637401774</v>
+        <v>0.06676119306698636</v>
       </c>
       <c r="T10">
-        <v>0.07564952637401774</v>
+        <v>0.06676119306698636</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H11">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>187.398952</v>
       </c>
       <c r="O11">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P11">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q11">
-        <v>80.07825824124534</v>
+        <v>60.3854810145369</v>
       </c>
       <c r="R11">
-        <v>720.7043241712081</v>
+        <v>543.4693291308321</v>
       </c>
       <c r="S11">
-        <v>0.1995462886843388</v>
+        <v>0.1453605808055339</v>
       </c>
       <c r="T11">
-        <v>0.1995462886843388</v>
+        <v>0.1453605808055339</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H12">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N12">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O12">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P12">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q12">
-        <v>19.162545497264</v>
+        <v>27.575515366412</v>
       </c>
       <c r="R12">
-        <v>172.462909475376</v>
+        <v>248.179638297708</v>
       </c>
       <c r="S12">
-        <v>0.04775097410590672</v>
+        <v>0.06638007783209697</v>
       </c>
       <c r="T12">
-        <v>0.04775097410590672</v>
+        <v>0.06638007783209697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H13">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N13">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O13">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P13">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q13">
-        <v>0.1063162334476667</v>
+        <v>0.1482945526804444</v>
       </c>
       <c r="R13">
-        <v>0.956846101029</v>
+        <v>1.334650974124</v>
       </c>
       <c r="S13">
-        <v>0.0002649284621984021</v>
+        <v>0.0003569762457094102</v>
       </c>
       <c r="T13">
-        <v>0.0002649284621984021</v>
+        <v>0.0003569762457094102</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H14">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N14">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O14">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P14">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q14">
-        <v>2.010540109760444</v>
+        <v>5.506495099416</v>
       </c>
       <c r="R14">
-        <v>18.094860987844</v>
+        <v>49.558455894744</v>
       </c>
       <c r="S14">
-        <v>0.005010046746334683</v>
+        <v>0.0132552943589411</v>
       </c>
       <c r="T14">
-        <v>0.005010046746334683</v>
+        <v>0.0132552943589411</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H15">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>187.398952</v>
       </c>
       <c r="O15">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P15">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q15">
-        <v>5.303348697388444</v>
+        <v>11.989410151056</v>
       </c>
       <c r="R15">
-        <v>47.730138276496</v>
+        <v>107.904691359504</v>
       </c>
       <c r="S15">
-        <v>0.01321536673505861</v>
+        <v>0.02886103735190442</v>
       </c>
       <c r="T15">
-        <v>0.01321536673505861</v>
+        <v>0.02886103735190441</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H16">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N16">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O16">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P16">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q16">
-        <v>1.269079309834667</v>
+        <v>5.475060532764</v>
       </c>
       <c r="R16">
-        <v>11.421713788512</v>
+        <v>49.275544794876</v>
       </c>
       <c r="S16">
-        <v>0.003162407273653153</v>
+        <v>0.01317962473125684</v>
       </c>
       <c r="T16">
-        <v>0.003162407273653153</v>
+        <v>0.01317962473125684</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H17">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N17">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O17">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P17">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q17">
-        <v>0.007041013010888888</v>
+        <v>0.029443571292</v>
       </c>
       <c r="R17">
-        <v>0.063369117098</v>
+        <v>0.264992141628</v>
       </c>
       <c r="S17">
-        <v>1.754543674849002E-05</v>
+        <v>7.087688219232591E-05</v>
       </c>
       <c r="T17">
-        <v>1.754543674849002E-05</v>
+        <v>7.087688219232589E-05</v>
       </c>
     </row>
   </sheetData>
